--- a/data/trans_orig/P70B_R2_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R2_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>23705</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15316</v>
+        <v>14860</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35587</v>
+        <v>34455</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1345070050446067</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08690695166500388</v>
+        <v>0.08431755493075539</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2019292245857888</v>
+        <v>0.1955049207555736</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -762,19 +762,19 @@
         <v>31801</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23273</v>
+        <v>22654</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41249</v>
+        <v>41744</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1872975906958509</v>
+        <v>0.1872975906958508</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1370703892508251</v>
+        <v>0.1334257337803449</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2429457986991142</v>
+        <v>0.2458633655625388</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -783,19 +783,19 @@
         <v>55506</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41888</v>
+        <v>42661</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69975</v>
+        <v>70974</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.160410325730498</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1210560790262326</v>
+        <v>0.123289537699349</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2022269946952698</v>
+        <v>0.2051121948013055</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>152532</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>140650</v>
+        <v>141782</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>160921</v>
+        <v>161377</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8654929949553932</v>
+        <v>0.8654929949553933</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7980707754142111</v>
+        <v>0.8044950792444264</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.913093048334996</v>
+        <v>0.9156824450692446</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>168</v>
@@ -833,19 +833,19 @@
         <v>137986</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>128538</v>
+        <v>128043</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>146514</v>
+        <v>147133</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8127024093041493</v>
+        <v>0.8127024093041492</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7570542013008857</v>
+        <v>0.7541366344374612</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8629296107491752</v>
+        <v>0.8665742662196549</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>290</v>
@@ -854,19 +854,19 @@
         <v>290518</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>276049</v>
+        <v>275050</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>304136</v>
+        <v>303363</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8395896742695018</v>
+        <v>0.8395896742695022</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7977730053047301</v>
+        <v>0.7948878051986945</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8789439209737674</v>
+        <v>0.8767104623006508</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>104132</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>84468</v>
+        <v>83876</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>127720</v>
+        <v>128327</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.205756045547605</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1669010727634789</v>
+        <v>0.1657308516090012</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2523622019227645</v>
+        <v>0.2535622167652036</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -979,19 +979,19 @@
         <v>70389</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56933</v>
+        <v>56671</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84371</v>
+        <v>84565</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1962577347973511</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.158740390405714</v>
+        <v>0.1580088761835736</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2352410596375136</v>
+        <v>0.2357829965027513</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>170</v>
@@ -1000,19 +1000,19 @@
         <v>174522</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>150039</v>
+        <v>150734</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>200617</v>
+        <v>201921</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2018166129874055</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1735044420920889</v>
+        <v>0.1743088748707013</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2319931480500653</v>
+        <v>0.2335010600799998</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>401964</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>378376</v>
+        <v>377769</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>421628</v>
+        <v>422220</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7942439544523949</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7476377980772353</v>
+        <v>0.7464377832347963</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.833098927236521</v>
+        <v>0.8342691483909986</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>370</v>
@@ -1050,19 +1050,19 @@
         <v>288268</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>274286</v>
+        <v>274092</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>301724</v>
+        <v>301986</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8037422652026489</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7647589403624866</v>
+        <v>0.7642170034972487</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8412596095942861</v>
+        <v>0.8419911238164263</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>706</v>
@@ -1071,19 +1071,19 @@
         <v>690232</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>664137</v>
+        <v>662833</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>714715</v>
+        <v>714020</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7981833870125944</v>
+        <v>0.7981833870125946</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7680068519499349</v>
+        <v>0.7664989399200004</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8264955579079114</v>
+        <v>0.8256911251292987</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>85212</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>67129</v>
+        <v>68129</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106417</v>
+        <v>106860</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1361566297351696</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1072618102216389</v>
+        <v>0.1088600536697612</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1700396543563159</v>
+        <v>0.1707471717124008</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -1196,19 +1196,19 @@
         <v>62148</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50791</v>
+        <v>49309</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75896</v>
+        <v>77002</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1275950882129231</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1042781590379226</v>
+        <v>0.1012355197607659</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1558213001828197</v>
+        <v>0.1580921705866797</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>160</v>
@@ -1217,19 +1217,19 @@
         <v>147360</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>127161</v>
+        <v>124746</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>170891</v>
+        <v>171060</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1324096143857562</v>
+        <v>0.1324096143857563</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1142598491359596</v>
+        <v>0.112090251776894</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1535534999952481</v>
+        <v>0.1537045849608108</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>540626</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>519421</v>
+        <v>518978</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>558709</v>
+        <v>557709</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8638433702648304</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8299603456436841</v>
+        <v>0.8292528282875992</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8927381897783611</v>
+        <v>0.8911399463302389</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>586</v>
@@ -1267,19 +1267,19 @@
         <v>424925</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>411177</v>
+        <v>410071</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>436282</v>
+        <v>437764</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8724049117870769</v>
+        <v>0.8724049117870768</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8441786998171804</v>
+        <v>0.8419078294133199</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8957218409620773</v>
+        <v>0.8987644802392342</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1067</v>
@@ -1288,19 +1288,19 @@
         <v>965551</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>942020</v>
+        <v>941851</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>985750</v>
+        <v>988165</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8675903856142437</v>
+        <v>0.8675903856142438</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8464465000047519</v>
+        <v>0.846295415039189</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8857401508640402</v>
+        <v>0.8879097482231053</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>65155</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48394</v>
+        <v>48784</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84916</v>
+        <v>86275</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1102852098751884</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0819155194573673</v>
+        <v>0.0825752961291728</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1437340533873508</v>
+        <v>0.1460357320721304</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -1413,19 +1413,19 @@
         <v>51862</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40135</v>
+        <v>40231</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65601</v>
+        <v>65895</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1111721019137187</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08603381200333808</v>
+        <v>0.08623876391188663</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1406218130077727</v>
+        <v>0.1412532382794255</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>117</v>
@@ -1434,19 +1434,19 @@
         <v>117017</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95586</v>
+        <v>97141</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>139769</v>
+        <v>140851</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1106765314568626</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09040700016353825</v>
+        <v>0.09187778145062017</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1321960670233912</v>
+        <v>0.1332190135552321</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>525628</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>505867</v>
+        <v>504508</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>542389</v>
+        <v>541999</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8897147901248116</v>
+        <v>0.8897147901248118</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8562659466126491</v>
+        <v>0.8539642679278695</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9180844805426329</v>
+        <v>0.9174247038708272</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>584</v>
@@ -1484,19 +1484,19 @@
         <v>414643</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>400904</v>
+        <v>400610</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>426370</v>
+        <v>426274</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8888278980862814</v>
+        <v>0.8888278980862813</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8593781869922272</v>
+        <v>0.8587467617205746</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9139661879966617</v>
+        <v>0.9137612360881137</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1053</v>
@@ -1505,19 +1505,19 @@
         <v>940272</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>917520</v>
+        <v>916438</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>961703</v>
+        <v>960148</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8893234685431376</v>
+        <v>0.8893234685431373</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8678039329766087</v>
+        <v>0.8667809864447679</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9095929998364617</v>
+        <v>0.9081222185493799</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>278204</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>241507</v>
+        <v>243507</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>314777</v>
+        <v>314561</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1465038464917522</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1271788047335299</v>
+        <v>0.1282320393167042</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1657634312932291</v>
+        <v>0.1656493789059315</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>277</v>
@@ -1630,19 +1630,19 @@
         <v>216201</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>190949</v>
+        <v>191317</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>241174</v>
+        <v>239428</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1458820379308946</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1288432320204689</v>
+        <v>0.1290920450822193</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1627327934382636</v>
+        <v>0.1615548894467735</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>507</v>
@@ -1651,19 +1651,19 @@
         <v>494405</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>452386</v>
+        <v>451783</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>541801</v>
+        <v>539794</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1462312819700097</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1338033289790863</v>
+        <v>0.1336249585270047</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1602497755979163</v>
+        <v>0.1596561491127857</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>1620750</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1584177</v>
+        <v>1584393</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1657447</v>
+        <v>1655447</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8534961535082479</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8342365687067705</v>
+        <v>0.8343506210940684</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.87282119526647</v>
+        <v>0.8717679606832957</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1708</v>
@@ -1701,19 +1701,19 @@
         <v>1265822</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1240849</v>
+        <v>1242595</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1291074</v>
+        <v>1290706</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8541179620691054</v>
+        <v>0.8541179620691055</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.837267206561736</v>
+        <v>0.8384451105532265</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8711567679795306</v>
+        <v>0.8709079549177807</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3116</v>
@@ -1722,19 +1722,19 @@
         <v>2886572</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2839176</v>
+        <v>2841183</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2928591</v>
+        <v>2929194</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8537687180299903</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8397502244020836</v>
+        <v>0.8403438508872143</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8661966710209137</v>
+        <v>0.8663750414729956</v>
       </c>
     </row>
     <row r="18">
